--- a/lab2/docs/Lab02_BBT_TCs_Form.xlsx
+++ b/lab2/docs/Lab02_BBT_TCs_Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="158">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -412,10 +412,7 @@
     <t xml:space="preserve">expected result</t>
   </si>
   <si>
-    <t xml:space="preserve">02. titlu = ?, length = -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC1</t>
+    <t xml:space="preserve">02. enunt = “A?”, length = 2</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -424,130 +421,120 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Bine</t>
+    <t xml:space="preserve">“1)Bine”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“2)Foarte bine”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“3)Rau”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception: InputValidationFailedException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03. enunt = "As?", length = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. enunt = "Cu..e?", length = 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"As?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. enunt = "Cu..e?", length = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. enunt = "Cu..e?", length = 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cu..e?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domeniu length in [1,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. domeniu = "", length = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. domeniu = "A", length = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. domeniu = "Ab", length = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. domeniu = "A..d", length = 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. domeniu = "S…re", length = 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S..re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. domeniu = "A..s", length = 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBT TCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final        TC No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req. ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECP TCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVA TCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varianta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varianta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varianta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varianta corecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domeniu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1_ECP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cum esti?</t>
   </si>
   <si>
     <t xml:space="preserve">2)Foarte bine</t>
   </si>
   <si>
-    <t xml:space="preserve">3)Rau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exception: InputValidationFailedException</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02. enunt = "Cum esti?", length = 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cum esti?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Cu..e?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. enunt = "Cu..e?", length = 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domeniu length in [1,30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. domeniu = "", length = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S..re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08. regizor = ?, length = -1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">domeniu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = "Stare", length = 5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">10. regizor = "D…123", length = 255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. domeniu = "S…re", length = 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. regizor = "D…1234", length = 256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT TCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final        TC No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req. ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECP TCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVA TCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varianta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varianta2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varianta3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varianta corecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domeniu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC1_ECP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">“2”</t>
   </si>
   <si>
@@ -575,6 +562,9 @@
     <t xml:space="preserve">TC4_ECP</t>
   </si>
   <si>
+    <t xml:space="preserve">TC6_BVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">C..e?</t>
   </si>
   <si>
@@ -584,13 +574,16 @@
     <t xml:space="preserve">TC5_ECP</t>
   </si>
   <si>
+    <t xml:space="preserve">TC12_BVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">“S...re”</t>
   </si>
   <si>
     <t xml:space="preserve">Error message-Lungimea domeniului depaseste 30 de caractere!</t>
   </si>
   <si>
-    <t xml:space="preserve">TC6_BVA</t>
+    <t xml:space="preserve">TC1_BVA</t>
   </si>
   <si>
     <t xml:space="preserve">Error message-Ultimul caracter din enunt nu e '?'!</t>
@@ -1030,7 +1023,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1207,10 +1200,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1221,6 +1210,18 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1297,6 +1298,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2657,8 +2662,8 @@
   </sheetPr>
   <dimension ref="B1:Q1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6208,8 +6213,8 @@
   </sheetPr>
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q24" activeCellId="0" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6357,7 +6362,7 @@
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="16"/>
@@ -6367,23 +6372,21 @@
       <c r="H8" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="K8" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="L8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="M8" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="N8" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="O8" s="41" t="n">
         <v>1</v>
@@ -6392,7 +6395,7 @@
         <v>45</v>
       </c>
       <c r="Q8" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R8" s="42"/>
     </row>
@@ -6400,7 +6403,7 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="16"/>
       <c r="G9" s="20" t="n">
@@ -6409,23 +6412,21 @@
       <c r="H9" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>86</v>
-      </c>
       <c r="K9" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="N9" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>90</v>
       </c>
       <c r="O9" s="24" t="n">
         <v>1</v>
@@ -6433,15 +6434,17 @@
       <c r="P9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="45"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="G10" s="20" t="n">
         <v>3</v>
@@ -6449,23 +6452,21 @@
       <c r="H10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="45" t="s">
         <v>94</v>
       </c>
       <c r="L10" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="N10" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>90</v>
       </c>
       <c r="O10" s="41" t="n">
         <v>1</v>
@@ -6473,10 +6474,10 @@
       <c r="P10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="42"/>
+      <c r="Q10" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="22"/>
@@ -6491,39 +6492,39 @@
       <c r="H11" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="40" t="s">
-        <v>96</v>
-      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="46" t="s">
         <v>54</v>
       </c>
       <c r="L11" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="N11" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>90</v>
       </c>
       <c r="O11" s="41" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" s="42"/>
+        <v>45</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="G12" s="20" t="n">
         <v>5</v>
@@ -6531,23 +6532,21 @@
       <c r="H12" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>96</v>
-      </c>
+      <c r="I12" s="40"/>
       <c r="J12" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>54</v>
+        <v>85</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="L12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="N12" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>90</v>
       </c>
       <c r="O12" s="41" t="n">
         <v>1</v>
@@ -6578,38 +6577,38 @@
         <v>6</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>54</v>
+        <v>85</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="L13" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="N13" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>90</v>
       </c>
       <c r="O13" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>100</v>
+      <c r="P13" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="25" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="16"/>
@@ -6619,26 +6618,38 @@
       <c r="H14" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>67</v>
-      </c>
+      <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+        <v>85</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>102</v>
+      <c r="D15" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="E15" s="16"/>
       <c r="G15" s="20" t="n">
@@ -6647,86 +6658,152 @@
       <c r="H15" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="40" t="s">
-        <v>67</v>
-      </c>
+      <c r="I15" s="40"/>
       <c r="J15" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+        <v>85</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>103</v>
+      <c r="D16" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="E16" s="16"/>
       <c r="G16" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="39" t="n">
+        <v>9</v>
+      </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
+      <c r="J16" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17" s="16"/>
       <c r="G17" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39" t="n">
+        <v>10</v>
+      </c>
       <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
+      <c r="J17" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>105</v>
+      <c r="D18" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="E18" s="16"/>
       <c r="G18" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="39" t="n">
+        <v>11</v>
+      </c>
       <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="J18" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="49"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="22"/>
@@ -6736,17 +6813,35 @@
       <c r="G19" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="J19" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="22"/>
@@ -6913,12 +7008,12 @@
       <c r="E28" s="16"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
@@ -6932,12 +7027,12 @@
       <c r="E29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
@@ -7936,7 +8031,7 @@
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="40">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:D5"/>
@@ -7949,24 +8044,18 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="B19:B24"/>
@@ -8002,13 +8091,15 @@
   </sheetPr>
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
@@ -8035,34 +8126,34 @@
       <c r="G1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
+      <c r="B3" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>110</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>113</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>28</v>
@@ -8079,72 +8170,72 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="56" t="s">
+      <c r="G5" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="H5" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56" t="s">
+      <c r="I5" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="56" t="s">
-        <v>116</v>
+      <c r="N5" s="58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="57" t="n">
+      <c r="B6" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="C6" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60" t="s">
+      <c r="J6" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="62" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8153,37 +8244,37 @@
         <f aca="false">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="64" t="s">
+      <c r="F7" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="57"/>
+      <c r="J7" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="59"/>
       <c r="M7" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8191,37 +8282,37 @@
         <f aca="false">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>127</v>
+      <c r="K8" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8229,37 +8320,37 @@
         <f aca="false">B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="64" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="64" t="s">
+      <c r="H9" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>130</v>
+      <c r="J9" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8267,37 +8358,37 @@
         <f aca="false">B9+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="64" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="64" t="s">
+      <c r="H10" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" s="66" t="s">
-        <v>133</v>
+      <c r="J10" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="M10" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8305,37 +8396,37 @@
         <f aca="false">B10+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="70" t="s">
-        <v>119</v>
+      <c r="C11" s="60"/>
+      <c r="D11" s="73" t="s">
+        <v>122</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="64" t="s">
+      <c r="H11" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="N11" s="63" t="s">
-        <v>135</v>
+      <c r="J11" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8343,231 +8434,231 @@
         <f aca="false">B11+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="70" t="s">
-        <v>119</v>
+      <c r="C12" s="60"/>
+      <c r="D12" s="73" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="64" t="s">
+      <c r="H12" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="60" t="s">
-        <v>120</v>
+      <c r="J12" s="62" t="s">
+        <v>125</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="65" t="s">
-        <v>137</v>
+      <c r="M12" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="56" t="n">
+      <c r="B13" s="58" t="n">
         <f aca="false">B12+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="56" t="s">
+      <c r="H13" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56" t="s">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="58" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="73"/>
+      <c r="B15" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L16" s="16"/>
-      <c r="M16" s="73"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
+      <c r="C17" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>144</v>
+      <c r="B18" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>151</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="78"/>
+        <v>153</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="81"/>
       <c r="J18" s="21" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" s="79" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="84"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="79"/>
+      <c r="P19" s="82"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="83" t="n">
+      <c r="B20" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="86" t="n">
         <f aca="false">SUM(D20:E20)</f>
         <v>7</v>
       </c>
-      <c r="D20" s="84" t="n">
+      <c r="D20" s="87" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="90"/>
       <c r="J20" s="24" t="n">
         <f aca="false">SUM(K20:L20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="88" t="s">
-        <v>150</v>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="91" t="s">
+        <v>157</v>
       </c>
       <c r="N20" s="24" t="n">
         <f aca="false">SUM(O20:P20)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M21" s="35"/>
